--- a/classification/droptc/modern-bert/freeze/67351593/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/67351593/prediction.xlsx
@@ -483,14 +483,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.289393275976181</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.6356614232063293</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.5939675569534302</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.6123754382133484</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.8612675070762634</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7191985249519348</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.5226749777793884</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.2264539748430252</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.5378352403640747</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.5175948739051819</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.7533156871795654</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.6516602039337158</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3561645448207855</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.4587661623954773</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.6533136367797852</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.3677135407924652</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.7298694849014282</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.858921229839325</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.7161521315574646</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.6152343153953552</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.7357785701751709</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.3088589608669281</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.9430128931999207</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.4037435948848724</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.6205702424049377</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.8134621381759644</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.5897899270057678</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.6942150592803955</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.9339497685432434</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.6446527242660522</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.9227767586708069</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.2744387090206146</v>
       </c>
     </row>
     <row r="35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5551390051841736</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.6689788699150085</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.4948186874389648</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.8567567467689514</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.7311382293701172</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.3798710703849792</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.343214750289917</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.2754217088222504</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.7824174165725708</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.2880105376243591</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.6857208013534546</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.8021262288093567</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.2582352459430695</v>
       </c>
     </row>
     <row r="48">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.5287927389144897</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.7130758166313171</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.4434644877910614</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.2666628062725067</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.6242365837097168</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.2666628062725067</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.7405005097389221</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.5009760856628418</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.3859708309173584</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.7195945978164673</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.7052212953567505</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.6513106822967529</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.4100010991096497</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.6937580108642578</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.4516956508159637</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.5317544937133789</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.8142706155776978</v>
       </c>
     </row>
     <row r="66">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5044796466827393</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7101452946662903</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.6326602697372437</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.5470901131629944</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.7881413102149963</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.4899397194385529</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.6449342966079712</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.8984959721565247</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.8373018503189087</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.2634838819503784</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.6410326361656189</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.6852793097496033</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.6311209201812744</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.3616409003734589</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.3224218785762787</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.5949836373329163</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.7152840495109558</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.7342379093170166</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.741935133934021</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.652656078338623</v>
       </c>
     </row>
     <row r="88">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.3371201753616333</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7330067753791809</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3220161497592926</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.6497464776039124</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.8077150583267212</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.2762047052383423</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.5844170451164246</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.7027642726898193</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.3629370927810669</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.502638041973114</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.4886414110660553</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.8053613901138306</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.8097160458564758</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.4949702322483063</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.5442350506782532</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.5341576933860779</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.6273471713066101</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.4563443660736084</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.5669413208961487</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.6270745396614075</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.7425548434257507</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.5897899270057678</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.7040941715240479</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.5772801637649536</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.7535602450370789</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.858921229839325</v>
       </c>
     </row>
     <row r="115">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.701772928237915</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.8685999512672424</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.7217888832092285</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.5608469247817993</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.8780354261398315</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.7360742092132568</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.3381403684616089</v>
       </c>
     </row>
     <row r="123">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.4269036948680878</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.5027735233306885</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.343693345785141</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.8477716445922852</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6626238226890564</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.68256014585495</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.2359471172094345</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.5009760856628418</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.3045961558818817</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.625318706035614</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.8138412237167358</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.3303882479667664</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.8641424775123596</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.3408042192459106</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.7541216015815735</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.5340869426727295</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.6071575880050659</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.4035061001777649</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.6340197920799255</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.719724714756012</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.6242365837097168</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.7989139556884766</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.7409353256225586</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.6174170970916748</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.7016947865486145</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.8537182211875916</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8422946929931641</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.7844315767288208</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.2880105376243591</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.7589183449745178</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.8043959140777588</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.6846334934234619</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.8272802233695984</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.3859708309173584</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.4191872775554657</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.3045961558818817</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.7503736019134521</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.6429374217987061</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.5964567065238953</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.7830379605293274</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.6198732256889343</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.6729525327682495</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.5111668109893799</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.7286545038223267</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.3408042192459106</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.6042642593383789</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.5553802251815796</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.4094215929508209</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.343214750289917</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.4236700534820557</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.5178955793380737</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.6014218926429749</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.6251906156539917</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.7521830201148987</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.7733047604560852</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.5669413208961487</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.6395724415779114</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.9360551238059998</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.3185098469257355</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.7431473135948181</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.5068956613540649</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.5370551943778992</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.6626589894294739</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.8175786733627319</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.780791699886322</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.6060424447059631</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.5178955793380737</v>
       </c>
     </row>
     <row r="192">
@@ -5803,14 +5803,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.3859708309173584</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.9202218651771545</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.5684791803359985</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.4737981259822845</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.8725624084472656</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.8385392427444458</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.5086320638656616</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.3849625587463379</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.6439778208732605</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.6849533915519714</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.4922839999198914</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.8541017174720764</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.387795090675354</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.8371777534484863</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.3408042192459106</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.2666628062725067</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.46529221534729</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.6459778547286987</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.4527051448822021</v>
       </c>
     </row>
   </sheetData>
